--- a/research/nkrokhmal/plan_2020-11-24.xlsx
+++ b/research/nkrokhmal/plan_2020-11-24.xlsx
@@ -49800,17 +49800,17 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Для пиццы</t>
+          <t>Сулугуни</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
+          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D2">
@@ -49831,7 +49831,7 @@
         </is>
       </c>
       <c r="L2">
-        <f>-(F2 + F3 + F4 + F5 + F6 + F7) / L6</f>
+        <f>-(F2 + F3 + F4 + F5 + F6 + F7 + F8) / L5</f>
         <v/>
       </c>
       <c r="M2">
@@ -49847,12 +49847,12 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D3">
@@ -49869,11 +49869,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
         </is>
       </c>
       <c r="L3">
-        <f>-(F8) / L6</f>
+        <f>-(F9) / L5</f>
         <v/>
       </c>
       <c r="M3">
@@ -49884,12 +49884,12 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D4">
@@ -49904,29 +49904,16 @@
         <f>MIN(D4, 0)</f>
         <v/>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L4">
-        <f>-(F9 + F10 + F11 + F12 + F13) / L6</f>
-        <v/>
-      </c>
-      <c r="M4">
-        <f>ROUND(L4)</f>
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
         </is>
       </c>
       <c r="D5">
@@ -49941,16 +49928,24 @@
         <f>MIN(D5, 0)</f>
         <v/>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D6">
@@ -49965,24 +49960,16 @@
         <f>MIN(D6, 0)</f>
         <v/>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>ВкусВилл</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="D7">
@@ -50001,12 +49988,12 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D8">
@@ -50025,12 +50012,12 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="D9">
@@ -50046,87 +50033,20 @@
         <v/>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
-        </is>
-      </c>
-      <c r="D10">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C10,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F10">
-        <f>MIN(D10, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C11,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F11">
-        <f>MIN(D11, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Фермерская коллекция</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D12">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E12">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C12,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F12">
-        <f>MIN(D12, 0)</f>
-        <v/>
-      </c>
-    </row>
     <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Качокавалло</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Metro Chef</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="D13">
@@ -50141,95 +50061,105 @@
         <f>MIN(D13, 0)</f>
         <v/>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
+        </is>
+      </c>
+      <c r="L13">
+        <f>-(F13) / L16</f>
+        <v/>
+      </c>
+      <c r="M13">
+        <f>ROUND(L13)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D17">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C17,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E17">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C17,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E14">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F17">
-        <f>MIN(D17, 0)</f>
+      <c r="F14">
+        <f>MIN(D14, 0)</f>
         <v/>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
-        </is>
-      </c>
-      <c r="L17">
-        <f>-(F17) / L20</f>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L14">
+        <f>-(F14 + F15) / L16</f>
         <v/>
       </c>
-      <c r="M17">
-        <f>ROUND(L17)</f>
+      <c r="M14">
+        <f>ROUND(L14)</f>
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Сулугуни "ВкусВилл", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="D18">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Качокавалло "Unagrande", 45%, кг</t>
+        </is>
+      </c>
+      <c r="D15">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E18">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C18,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E15">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C15,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F18">
-        <f>MIN(D18, 0)</f>
+      <c r="F15">
+        <f>MIN(D15, 0)</f>
         <v/>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="L18">
-        <f>-(F18 + F19 + F20 + F21 + F22 + F23 + F24) / L20</f>
-        <v/>
-      </c>
-      <c r="M18">
-        <f>ROUND(L18)</f>
-        <v/>
+    </row>
+    <row r="16">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Бонджорно</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D19">
@@ -50244,16 +50174,29 @@
         <f>MIN(D19, 0)</f>
         <v/>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
+        </is>
+      </c>
+      <c r="L19">
+        <f>-(F19 + F20) / L21</f>
+        <v/>
+      </c>
+      <c r="M19">
+        <f>ROUND(L19)</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Эсперсон</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Сулугуни "Умалат", 45%, 0,2 кг, т/ф, (9 шт)</t>
+          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
         </is>
       </c>
       <c r="D20">
@@ -50268,96 +50211,31 @@
         <f>MIN(D20, 0)</f>
         <v/>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>850</v>
-      </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-        </is>
-      </c>
-      <c r="D21">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E21">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C21,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F21">
-        <f>MIN(D21, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D22">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E22">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C22,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F22">
-        <f>MIN(D22, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="D23">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E23">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C23,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F23">
-        <f>MIN(D23, 0)</f>
-        <v/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>850</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Умалат</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D24">
@@ -50372,21 +50250,127 @@
         <f>MIN(D24, 0)</f>
         <v/>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L24">
+        <f>-(F24) / L28</f>
+        <v/>
+      </c>
+      <c r="M24">
+        <f>ROUND(L24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D25">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C25,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>MIN(D25, 0)</f>
+        <v/>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L25">
+        <f>-(F25) / L28</f>
+        <v/>
+      </c>
+      <c r="M25">
+        <f>ROUND(L25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D26">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C26,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>MIN(D26, 0)</f>
+        <v/>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+        </is>
+      </c>
+      <c r="L26">
+        <f>-(F26 + F27 + F28 + F29 + F30) / L28</f>
+        <v/>
+      </c>
+      <c r="M26">
+        <f>ROUND(L26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D27">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C27,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>MIN(D27, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла</t>
-        </is>
-      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Бонджорно</t>
+          <t>Orecchio Oro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Моцарелла палочки "Бонджорно", 45%, 0,12 кг, т/ф</t>
+          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D28">
@@ -50403,27 +50387,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
-        </is>
-      </c>
-      <c r="L28">
-        <f>-(F28 + F29) / L30</f>
-        <v/>
-      </c>
-      <c r="M28">
-        <f>ROUND(L28)</f>
-        <v/>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Эсперсон</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Моцарелла (палочки), 45%, кг, пл/л</t>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D29">
@@ -50440,66 +50419,43 @@
       </c>
     </row>
     <row r="30">
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>Фиор ди Латте</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D33">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E33">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C33,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E30">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C30,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F33">
-        <f>MIN(D33, 0)</f>
-        <v/>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L33">
-        <f>-(F33 + F34) / L38</f>
-        <v/>
-      </c>
-      <c r="M33">
-        <f>ROUND(L33)</f>
+      <c r="F30">
+        <f>MIN(D30, 0)</f>
         <v/>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
         </is>
       </c>
       <c r="D34">
@@ -50516,11 +50472,11 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
+          <t>2.7% варка, Сакко, Лактоза True, Id 2</t>
         </is>
       </c>
       <c r="L34">
-        <f>-(F35 + F36 + F37 + F38 + F39 + F40) / L38</f>
+        <f>-(F34 + F35 + F36 + F37 + F38) / L38</f>
         <v/>
       </c>
       <c r="M34">
@@ -50536,7 +50492,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла "Pretto", 45%, 1,2 кг, в/у</t>
         </is>
       </c>
       <c r="D35">
@@ -50553,11 +50509,11 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+          <t>2.7% варка, Альче, Лактоза True, Id 1</t>
         </is>
       </c>
       <c r="L35">
-        <f>-(F41) / L38</f>
+        <f>-(F39 + F40 + F41 + F42 + F43 + F44) / L38</f>
         <v/>
       </c>
       <c r="M35">
@@ -50573,7 +50529,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
         </is>
       </c>
       <c r="D36">
@@ -50590,11 +50546,11 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+          <t>2.7% варка, Альче, Лактоза False, Id 3</t>
         </is>
       </c>
       <c r="L36">
-        <f>-(F42) / L38</f>
+        <f>-(F45) / L38</f>
         <v/>
       </c>
       <c r="M36">
@@ -50605,12 +50561,12 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Фермерская коллекция</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла для пиццы "Фермерская коллекция", 45%, 0,2 кг, т/ф</t>
         </is>
       </c>
       <c r="D37">
@@ -50629,12 +50585,12 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="D38">
@@ -50655,18 +50611,18 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="D39">
@@ -50685,12 +50641,12 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D40">
@@ -50714,7 +50670,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
         </is>
       </c>
       <c r="D41">
@@ -50738,7 +50694,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
         </is>
       </c>
       <c r="D42">
@@ -50754,125 +50710,195 @@
         <v/>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>Качокавалло</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="43">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, 0,26 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="D46">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
+        </is>
+      </c>
+      <c r="D43">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E46">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C46,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E43">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C43,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F46">
-        <f>MIN(D46, 0)</f>
+      <c r="F43">
+        <f>MIN(D43, 0)</f>
         <v/>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
-        </is>
-      </c>
-      <c r="L46">
-        <f>-(F46 + F47) / L49</f>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
+        </is>
+      </c>
+      <c r="D44">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="M46">
-        <f>ROUND(L46)</f>
+      <c r="E44">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C44,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
+      <c r="F44">
+        <f>MIN(D44, 0)</f>
+        <v/>
+      </c>
     </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+    <row r="45">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande", 45%, кг</t>
-        </is>
-      </c>
-      <c r="D47">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="D45">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="E47">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C47,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="E45">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C45,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F47">
-        <f>MIN(D47, 0)</f>
-        <v/>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>3.6% варка, Сакко, Лактоза True, Id 10</t>
-        </is>
-      </c>
-      <c r="L47">
-        <f>-(F48) / L49</f>
-        <v/>
-      </c>
-      <c r="M47">
-        <f>ROUND(L47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="D48">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="E48">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C48,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F48">
-        <f>MIN(D48, 0)</f>
+      <c r="F45">
+        <f>MIN(D45, 0)</f>
         <v/>
       </c>
     </row>
     <row r="49">
+      <c r="A49" s="4" t="inlineStr">
+        <is>
+          <t>Фиор ди Латте</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="D49">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E49">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C49,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F49">
+        <f>MIN(D49, 0)</f>
+        <v/>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>850</v>
+          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+        </is>
+      </c>
+      <c r="L49">
+        <f>-(F49 + F50) / L54</f>
+        <v/>
+      </c>
+      <c r="M49">
+        <f>ROUND(L49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="D50">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E50">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C50,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F50">
+        <f>MIN(D50, 0)</f>
+        <v/>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза False, Id 7</t>
+        </is>
+      </c>
+      <c r="L50">
+        <f>-(F51) / L54</f>
+        <v/>
+      </c>
+      <c r="M50">
+        <f>ROUND(L50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+        </is>
+      </c>
+      <c r="D51">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="E51">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(C51,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F51">
+        <f>MIN(D51, 0)</f>
+        <v/>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
+        </is>
+      </c>
+      <c r="L51">
+        <f>-(F52) / L54</f>
+        <v/>
+      </c>
+      <c r="M51">
+        <f>ROUND(L51)</f>
+        <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Unagrande</t>
@@ -50880,7 +50906,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D52">
@@ -50897,11 +50923,11 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3.6% варка, Альче, Лактоза True, Id 9</t>
+          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
         </is>
       </c>
       <c r="L52">
-        <f>-(F52) / L56</f>
+        <f>-(F53 + F54 + F55 + F56 + F57 + F58) / L54</f>
         <v/>
       </c>
       <c r="M52">
@@ -50917,7 +50943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D53">
@@ -50932,29 +50958,16 @@
         <f>MIN(D53, 0)</f>
         <v/>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>3.3% варка, Сакко, Лактоза True, Id 6</t>
-        </is>
-      </c>
-      <c r="L53">
-        <f>-(F53 + F54 + F55 + F56 + F57) / L56</f>
-        <v/>
-      </c>
-      <c r="M53">
-        <f>ROUND(L53)</f>
-        <v/>
-      </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Pretto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
         </is>
       </c>
       <c r="D54">
@@ -50971,27 +50984,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3.3% варка, Альче, Лактоза True, Id 5</t>
-        </is>
-      </c>
-      <c r="L54">
-        <f>-(F58) / L56</f>
-        <v/>
-      </c>
-      <c r="M54">
-        <f>ROUND(L54)</f>
-        <v/>
+          <t>Объем варки</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Orecchio Oro</t>
+          <t>Ваш выбор</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D55">
@@ -51010,12 +51018,12 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ваш выбор</t>
+          <t>Красная птица</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D56">
@@ -51030,24 +51038,16 @@
         <f>MIN(D56, 0)</f>
         <v/>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Объем варки</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1000</v>
-      </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Красная птица</t>
+          <t>Fine Life</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
         </is>
       </c>
       <c r="D57">
@@ -51066,12 +51066,12 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Unagrande</t>
+          <t>Orecchio Oro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+          <t>Моцарелла в воде Фиор Ди Латте "Orecchio Oro", 45%, 0,1 кг, ф/п</t>
         </is>
       </c>
       <c r="D58">
@@ -51089,33 +51089,33 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:A45"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="A49:A58"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
     <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
